--- a/biology/Botanique/Violales/Violales.xlsx
+++ b/biology/Botanique/Violales/Violales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Violales sont un ordre de plantes dicotylédones dialypétales thalamiflores. Cet ordre n'est plus reconnu dans les classifications du XXIe siècle. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon classification classique de Cronquist (1981)[1][2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon classification classique de Cronquist (1981) : 
 Achariacées
 Ancistrocladacées
 Bégoniacées (famille du bégonia)
@@ -565,11 +579,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour la classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4], cet ordre n'existe pas. Beaucoup de ces plantes sont assignées à l'ordre Malpighiales[2].
-En classification classique de Cronquist (1981)[1], il comprend 24 familles et environ 5 000 espèces[5].
-Dans des classifications plus anciennes, comme la classification de Dahlgren (1975-1989) les Violales forment le  super-ordre des Violiflorae (appelé aussi Violanae)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009), cet ordre n'existe pas. Beaucoup de ces plantes sont assignées à l'ordre Malpighiales.
+En classification classique de Cronquist (1981), il comprend 24 familles et environ 5 000 espèces.
+Dans des classifications plus anciennes, comme la classification de Dahlgren (1975-1989) les Violales forment le  super-ordre des Violiflorae (appelé aussi Violanae).
 </t>
         </is>
       </c>
